--- a/Упражнения/60.ESP.xlsx
+++ b/Упражнения/60.ESP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\Упражнения\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628BDF4C-998C-4D39-8149-7294C455EE41}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1584096F-E5B5-4708-B7C8-49BC46A632FF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="-10910" windowWidth="19420" windowHeight="10560" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12103" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Упражнение" sheetId="110" r:id="rId1"/>
@@ -2073,54 +2073,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2129,16 +2085,11 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2178,6 +2129,55 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -9876,7 +9876,7 @@
         <xdr:cNvPr id="11" name="Диаграмма 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C92D9587-381E-419B-85F1-6C6A738E2685}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11238,7 +11238,7 @@
   </sheetPr>
   <dimension ref="A2:U182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B45" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B38" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
@@ -11794,7 +11794,7 @@
         <v>219</v>
       </c>
       <c r="I52" s="68">
-        <f t="shared" ref="I52:I72" si="0">G52+Pintake_</f>
+        <f t="shared" ref="I52" si="0">G52+Pintake_</f>
         <v>105.86321387514498</v>
       </c>
       <c r="J52" s="68">
@@ -11805,7 +11805,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="68">
-        <f t="shared" ref="L52:L72" si="1">Pdis-J52</f>
+        <f t="shared" ref="L52" si="1">Pdis-J52</f>
         <v>25.05006859682814</v>
       </c>
       <c r="N52">
@@ -11823,10 +11823,10 @@
         <v>219</v>
       </c>
       <c r="S52">
-        <v>370.89311674269101</v>
+        <v>9903.9086779630652</v>
       </c>
       <c r="T52">
-        <v>6.2193740277150793</v>
+        <v>207.67287972348151</v>
       </c>
       <c r="U52">
         <v>2.0968779749107457E-2</v>
@@ -11886,10 +11886,10 @@
         <v>89.173703680978605</v>
       </c>
       <c r="S53">
-        <v>624.25599992293814</v>
+        <v>17593.576337570124</v>
       </c>
       <c r="T53">
-        <v>54.44146798950819</v>
+        <v>1822.1100220885296</v>
       </c>
       <c r="U53">
         <v>0.1035667784154557</v>
@@ -11949,10 +11949,10 @@
         <v>42.320925815386644</v>
       </c>
       <c r="S54">
-        <v>655.63744566207015</v>
+        <v>18643.538002694349</v>
       </c>
       <c r="T54">
-        <v>109.71861492629647</v>
+        <v>3675.771725933454</v>
       </c>
       <c r="U54">
         <v>0.19716063149613738</v>
@@ -12012,10 +12012,10 @@
         <v>25.468251643899038</v>
       </c>
       <c r="S55">
-        <v>669.40111505126242</v>
+        <v>19020.949719918306</v>
       </c>
       <c r="T55">
-        <v>165.84986247015456</v>
+        <v>5510.4676901478479</v>
       </c>
       <c r="U55">
         <v>0.28970518145986218</v>
@@ -12075,10 +12075,10 @@
         <v>16.86814357227486</v>
       </c>
       <c r="S56">
-        <v>677.79014856332822</v>
+        <v>19125.657087760697</v>
       </c>
       <c r="T56">
-        <v>221.54213566994346</v>
+        <v>7194.4441371850271</v>
       </c>
       <c r="U56">
         <v>0.3761671614299229</v>
@@ -12138,10 +12138,10 @@
         <v>11.909940582142553</v>
       </c>
       <c r="S57">
-        <v>684.80006205149709</v>
+        <v>19042.025918526997</v>
       </c>
       <c r="T57">
-        <v>274.67533489694762</v>
+        <v>8510.5719234117241</v>
       </c>
       <c r="U57">
         <v>0.44693626402069631</v>
@@ -12201,10 +12201,10 @@
         <v>9.0510997741391321</v>
       </c>
       <c r="S58">
-        <v>692.26954819671278</v>
+        <v>18643.212661915601</v>
       </c>
       <c r="T58">
-        <v>322.6413294666134</v>
+        <v>9035.701898319674</v>
       </c>
       <c r="U58">
         <v>0.48466442249933817</v>
@@ -12264,10 +12264,10 @@
         <v>7.9659662094666288</v>
       </c>
       <c r="S59">
-        <v>697.80013149624494</v>
+        <v>16892.414906428519</v>
       </c>
       <c r="T59">
-        <v>361.85552768844951</v>
+        <v>7017.2554612686981</v>
       </c>
       <c r="U59">
         <v>0.41540866123281378</v>
@@ -68993,15 +68993,15 @@
       <c r="D1" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="76" t="s">
+      <c r="J1" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="77"/>
-      <c r="L1" s="82">
+      <c r="K1" s="103"/>
+      <c r="L1" s="107">
         <f>AV7-1</f>
         <v>-1</v>
       </c>
-      <c r="M1" s="83"/>
+      <c r="M1" s="108"/>
       <c r="Q1" t="b">
         <v>0</v>
       </c>
@@ -69013,15 +69013,15 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="78" t="s">
+      <c r="J2" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="79"/>
+      <c r="K2" s="105"/>
       <c r="L2" s="80">
         <f>AY11-1</f>
         <v>-1</v>
       </c>
-      <c r="M2" s="81"/>
+      <c r="M2" s="106"/>
       <c r="T2" s="19" t="s">
         <v>20</v>
       </c>
@@ -69035,31 +69035,31 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="79" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="80"/>
-      <c r="D4" s="99"/>
+      <c r="D4" s="81"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="100">
+      <c r="B5" s="82">
         <v>1</v>
       </c>
-      <c r="C5" s="101"/>
-      <c r="D5" s="102"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="84"/>
     </row>
     <row r="6" spans="1:20" ht="12.9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="103" t="s">
+      <c r="B6" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="104"/>
-      <c r="D6" s="105"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="87"/>
     </row>
     <row r="7" spans="1:20" ht="12.9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
@@ -69068,14 +69068,14 @@
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="107"/>
-      <c r="D8" s="106" t="s">
+      <c r="B8" s="89"/>
+      <c r="D8" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="107"/>
+      <c r="E8" s="89"/>
     </row>
     <row r="9" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
@@ -69186,10 +69186,10 @@
     </row>
     <row r="17" spans="1:5" ht="12.9" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="1:5" ht="12.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="108" t="s">
+      <c r="A18" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="109"/>
+      <c r="B18" s="91"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
@@ -69217,10 +69217,10 @@
     </row>
     <row r="22" spans="1:5" ht="12.9" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="23" spans="1:5" ht="12.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="108" t="s">
+      <c r="A23" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="109"/>
+      <c r="B23" s="91"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
@@ -69342,99 +69342,99 @@
       </c>
     </row>
     <row r="42" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A42" s="96" t="s">
+      <c r="A42" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="97"/>
-      <c r="C42" s="86" t="s">
+      <c r="B42" s="76"/>
+      <c r="C42" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="D42" s="87"/>
-      <c r="E42" s="87"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="87"/>
-      <c r="H42" s="88"/>
-      <c r="I42" s="89" t="s">
+      <c r="D42" s="95"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="95"/>
+      <c r="G42" s="95"/>
+      <c r="H42" s="96"/>
+      <c r="I42" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="J42" s="90"/>
-      <c r="L42" s="75" t="s">
+      <c r="J42" s="98"/>
+      <c r="L42" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="M42" s="75"/>
-      <c r="N42" s="75" t="s">
+      <c r="M42" s="109"/>
+      <c r="N42" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="O42" s="75"/>
-      <c r="P42" s="75" t="s">
+      <c r="O42" s="109"/>
+      <c r="P42" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="Q42" s="75"/>
-      <c r="R42" s="75" t="s">
+      <c r="Q42" s="109"/>
+      <c r="R42" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="S42" s="75"/>
-      <c r="T42" s="75" t="s">
+      <c r="S42" s="109"/>
+      <c r="T42" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="U42" s="75"/>
-      <c r="V42" s="75" t="s">
+      <c r="U42" s="109"/>
+      <c r="V42" s="109" t="s">
         <v>79</v>
       </c>
-      <c r="W42" s="75"/>
-      <c r="X42" s="75" t="s">
+      <c r="W42" s="109"/>
+      <c r="X42" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="Y42" s="75"/>
-      <c r="Z42" s="75" t="s">
+      <c r="Y42" s="109"/>
+      <c r="Z42" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="AA42" s="75"/>
-      <c r="AB42" s="75" t="s">
+      <c r="AA42" s="109"/>
+      <c r="AB42" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="AC42" s="75"/>
-      <c r="AD42" s="75" t="s">
+      <c r="AC42" s="109"/>
+      <c r="AD42" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="AE42" s="75"/>
-      <c r="AF42" s="75" t="s">
+      <c r="AE42" s="109"/>
+      <c r="AF42" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="AG42" s="75"/>
-      <c r="AH42" s="75" t="s">
+      <c r="AG42" s="109"/>
+      <c r="AH42" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="AI42" s="75"/>
-      <c r="AJ42" s="75" t="s">
+      <c r="AI42" s="109"/>
+      <c r="AJ42" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="AK42" s="75"/>
-      <c r="AL42" s="75"/>
-      <c r="AM42" s="75"/>
-      <c r="AN42" s="75"/>
-      <c r="AO42" s="75"/>
-      <c r="AP42" s="75"/>
-      <c r="AQ42" s="75"/>
-      <c r="AR42" s="75"/>
-      <c r="AS42" s="75"/>
+      <c r="AK42" s="109"/>
+      <c r="AL42" s="109"/>
+      <c r="AM42" s="109"/>
+      <c r="AN42" s="109"/>
+      <c r="AO42" s="109"/>
+      <c r="AP42" s="109"/>
+      <c r="AQ42" s="109"/>
+      <c r="AR42" s="109"/>
+      <c r="AS42" s="109"/>
       <c r="AT42" s="21"/>
     </row>
     <row r="43" spans="1:46" ht="12.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="93"/>
-      <c r="B43" s="94"/>
-      <c r="C43" s="93" t="s">
+      <c r="A43" s="77"/>
+      <c r="B43" s="78"/>
+      <c r="C43" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="D43" s="94"/>
-      <c r="E43" s="95"/>
-      <c r="F43" s="93" t="s">
+      <c r="D43" s="78"/>
+      <c r="E43" s="101"/>
+      <c r="F43" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="G43" s="94"/>
-      <c r="H43" s="95"/>
-      <c r="I43" s="91"/>
-      <c r="J43" s="92"/>
+      <c r="G43" s="78"/>
+      <c r="H43" s="101"/>
+      <c r="I43" s="99"/>
+      <c r="J43" s="100"/>
       <c r="L43" s="21" t="s">
         <v>15</v>
       </c>
@@ -69530,17 +69530,17 @@
       <c r="B44" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="84" t="s">
+      <c r="C44" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="85"/>
+      <c r="D44" s="93"/>
       <c r="E44" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="84" t="s">
+      <c r="F44" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="G44" s="85"/>
+      <c r="G44" s="93"/>
       <c r="H44" s="8" t="s">
         <v>65</v>
       </c>
@@ -72013,20 +72013,13 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A42:B43"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="I42:J43"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="AR42:AS42"/>
+    <mergeCell ref="AF42:AG42"/>
+    <mergeCell ref="AH42:AI42"/>
+    <mergeCell ref="AJ42:AK42"/>
+    <mergeCell ref="AL42:AM42"/>
+    <mergeCell ref="AN42:AO42"/>
+    <mergeCell ref="AP42:AQ42"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
@@ -72041,13 +72034,20 @@
     <mergeCell ref="X42:Y42"/>
     <mergeCell ref="Z42:AA42"/>
     <mergeCell ref="AB42:AC42"/>
-    <mergeCell ref="AR42:AS42"/>
-    <mergeCell ref="AF42:AG42"/>
-    <mergeCell ref="AH42:AI42"/>
-    <mergeCell ref="AJ42:AK42"/>
-    <mergeCell ref="AL42:AM42"/>
-    <mergeCell ref="AN42:AO42"/>
-    <mergeCell ref="AP42:AQ42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="I42:J43"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="A42:B43"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D8:E8"/>
   </mergeCells>
   <conditionalFormatting sqref="B9">
     <cfRule type="cellIs" dxfId="5" priority="11" stopIfTrue="1" operator="lessThanOrEqual">
